--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/20_Burdur_2021.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/20_Burdur_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A6BF2E8-E701-4326-9906-8C865BFF8A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{919AE67E-9CCA-4891-B451-2FA8021A84FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="662" xr2:uid="{35181CE9-0F83-429E-9E6A-7B4F3E2BA65F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="662" xr2:uid="{42375177-5A05-4A14-9A7F-633C0E74155A}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -954,13 +954,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{2F6406FB-35B4-4625-AD09-32951CCA5A17}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{25C97A32-3233-48D3-98EE-FACE5201B237}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{6786F488-6325-4891-9AA3-9807CE45A92F}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{382A647A-9AF8-4B03-82AE-12BF98F5D6D1}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{85F217CA-0B09-42FA-89CF-9CC2487B4BED}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{00D87F60-6EF1-4494-B619-59080EF1594D}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{C199D049-A16B-449C-BD23-B57F3EA52171}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{69BAA2FA-22EA-4351-9ED3-0AEBB3D88E8E}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{3ACFFB2D-AFA5-48F0-9292-BC78FA24A7B1}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{C06366E4-68B3-4713-AFC0-C26827065A8B}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{8D863CDA-0341-4F24-A0E2-6BA760D9A886}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{C7AF2AA4-5A41-4DAF-A119-B4A802876A90}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{556674CA-8535-4C89-95F7-CD943ED0A56C}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{1E016D5E-81E4-47BD-A944-8483F8D54E9B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1330,7 +1330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11744BEE-1E2D-4D54-AD80-24415B9C4317}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80BFB965-7549-4E39-ADD7-037B7DE4C826}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2597,18 +2597,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2CBA3101-484F-4B76-950B-B5CE2F988D86}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C91DE9A9-F231-49EA-93A4-7D118153BEE0}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F8E92C20-46DF-4180-B018-734FDF22763F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{747A364E-8368-4BE4-BCFB-7CD2B7A3D1E9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BE9590AC-9A87-4CA8-9557-B5FE231B857D}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B6FD2C2D-E520-4165-9316-96FF2A31B866}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{639FF5E6-B47E-45C9-A104-6EBC7A2EE999}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2D50928B-0696-40DC-98ED-20CFAF62B794}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{65B61D47-A95F-4CB6-A273-E94D83142CF1}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{F1F04D10-67FE-4138-9C0F-F7A02EC591E6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{36CE031D-09D2-443C-A53A-CF0D447FEA95}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{18635003-170D-48A4-A260-F5A0FE30CAB2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0AF43242-1804-4639-9F7C-3D2DF9FE8084}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E916D0A6-E9B1-494F-96F8-93B297963EB5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BA8497DC-F114-49EF-B0DD-652318A98DCC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{43DFB003-9480-402A-9DE8-A3DD26CD3DE3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B8E3F158-CB8F-465D-B851-1D1935530997}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{99950B4F-DA06-4B95-BD2D-93F856DBAAEC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C4BE4895-BF53-4BB7-8304-F31B63C8BFF6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ABD5DD7A-0949-4DB6-9963-BD7738174078}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{78E717E6-F344-4BBC-B7A0-9EE71A49AF4B}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{D90808E4-6C49-4295-8ECA-5A4C0429BBD4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BF00BD4D-5C35-475A-83F4-E280895D00E7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{34244F5E-4EBF-4BE7-B1CB-D157F7C7941E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2621,7 +2621,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE5CE96E-DF83-44E1-A5F5-C8EC5AA8BA76}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{222AE823-3B02-41AE-8799-CB0F461CE55D}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -3923,18 +3923,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A4FB1D02-C46E-4BD0-BB4A-205D74FFC7F8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{933ED802-396F-48D6-9893-00A18EBB46DC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{029B5B5B-0F0E-4915-ACE7-769FC2EA1064}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7DA07480-4304-4916-BE0B-BC8E250BC132}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C0537F6B-4C38-4714-B082-6753D3B07002}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{7E393E20-952E-49D0-BCE3-6F702AFE1C22}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{02FB4DD6-756C-4440-A7D9-E9EED79FD7AA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E04CD5E4-1639-4B6A-BBD5-45417BFDD4A2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6E36C31B-E23E-4DA4-A4C2-C1102DD5F528}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{E2EA9F9A-5EB2-405D-BEFA-E79C0FA71F17}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8B1E2621-8016-4ADF-9F56-17C146B1784B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BB2F7EF1-D4B1-4CD1-9838-32E298276718}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D2271D5F-3508-4DB2-84DB-8214C83151E1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{442BB2CC-33FF-49CF-92AA-076BA13A34B9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F08C4CE7-F54C-4E18-9296-9F74C8A5726B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0BF053F6-0F2D-4C1D-A5D5-3DA6CE83B061}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D4AC1675-9004-4179-A73E-0C2747488137}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E7DDBAFE-0189-4AF3-8DF6-F5FF3A1260EF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6CF57868-9558-4260-9F1B-CEC501616EBE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6B5C5A76-2F87-4D74-B4DF-3C2C1261510A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C103E523-D087-4CEB-83C0-99DAA351EF00}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{686CE5BB-271E-44C3-8A0D-8B3D817E166D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7754C637-D903-4BA3-B2D9-FDD60865A048}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7BAA754A-EFCD-4741-AE92-AB1591142C18}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3947,7 +3947,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88CC3573-DD67-4C6E-9DC5-7F5A0F2D8059}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E66170B-3C50-490A-8E50-EA9DAB74569E}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -5245,18 +5245,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{23F75BD8-2094-43DC-83A3-3339A2C80667}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E08B008B-57B8-48E4-B303-4B8F7456F166}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{476E3BA5-B698-47F0-8BD0-1CEE5C05FC24}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{12296938-CF4A-4304-876A-04EBB1A20623}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{73B2823E-75FE-49EA-A4E3-1B0ED515ED2F}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{7C4DD662-4AE2-43C7-94D8-7A8CB93F9804}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F6323D52-FC1B-438B-99C5-E4D1B4721027}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DF8DFACD-6542-43BC-B46F-627151D9F6E3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{18DB54E6-14B5-4318-9519-6E5D3499F9BC}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{38E580A8-BD3C-4795-9D6E-04F51E221891}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F565523F-2454-4ABA-86BE-96E2B2A1B53C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{ADFEBDB7-43DA-4152-B3FD-699435F815D3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B57629E5-BE3F-47D5-AE95-378B85261C6D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C4178468-01FE-45EE-8D18-7FA5FD7232FD}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C2828485-FF4E-4B7A-9564-4D73B3DB2682}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{283A50AE-977E-4C63-9B14-40A6477C8E7D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7322B1EC-2E09-441E-A475-4B32A5483D50}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{64A9463A-0424-4DF1-90D3-C80A63DEF684}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FC66E8C1-0C6A-4DBE-AB98-37D9821AA8A9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E6D55E2A-181A-4160-BA41-46A382BD1707}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{ECFEF086-C91E-40F6-B661-ECAEA30746F3}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{3C994479-A15B-47E3-A31D-33630C9C5A05}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EB88048F-2F44-4BD1-BD5C-27C147DB96D2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0FEF3225-4113-4F6E-99BA-A4738993B493}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5269,7 +5269,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C9319DF-4F54-43A0-9073-85D077BBDAAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6F9B58F-A16D-4EA3-BA3E-C1AAC374A7D3}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -6553,18 +6553,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1C5ECDA8-C1EF-46AA-AE11-6354A2734A75}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8C245334-B6CB-4168-BFCD-9C6F9BBE05A2}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4FF35714-91FC-44F1-8723-AD213667744C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{115FFB27-1C44-46B6-953B-4184D5DFA9BE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{40292866-C5E3-4A72-B1F4-D4BC7FEFFD5A}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{55FA1683-EF64-4B20-AC2B-EC5A67305E09}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{73BB6B9F-C819-442D-BE50-5028EDB0515E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FBAC64CD-4734-44EE-A82E-136249BCA6A8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CAF0B2EB-BB49-439A-9E6D-C325A05A31C9}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{2ECFA1A3-B3EE-401E-822D-D21FEAA6456F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{160AA9B9-7F20-4A33-B18E-882C0F335675}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F0EE8FB3-6529-40D5-9264-B22B8836CD84}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1B05508E-18CF-4ACC-A417-57D8ECDB97DA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{08D0FBBE-9F88-4199-820D-911072653887}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C7DCF62C-812E-4225-9CB8-892681A65E7D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0412B792-3FBA-41DB-8E1E-965D4B79400E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3A7263C4-29A5-4E4E-88CA-8296B144A046}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C0A45527-CA69-41A9-BB25-AE9B8A3B59B4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D201FB8C-08B0-4ABB-8DC0-AF16E0F9BEF3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C5CD68C0-C3FD-47C8-BAA6-2E4F8FBF4546}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7D54AAF7-AB21-4C32-84AA-8CA1E11113C8}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{756AB090-0C93-4D39-9E3B-CEC71B87987A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5743FC28-EBF8-491F-812D-4AC2B2623BDE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EFA57D48-1B73-4785-885A-18043F3F4F8C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6577,7 +6577,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E2DA90-66FF-4C44-B5BE-078FDABDD08C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BAE79D2-948B-42C1-950E-C3761FBAC28F}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7844,18 +7844,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7BC75FB9-6388-4012-BB3F-615E3B90193D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D81D6BD8-1572-4135-9611-D4EEE43A9CA9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2382C837-55E0-46D9-9E9C-379834B66531}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7CD26CAB-C0F9-48D9-A383-FC03DA7A7974}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{95EA750F-A1BE-4A3D-B340-AA8C987FE894}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D208CC92-7504-4B4F-BE1C-F6DBEE7F0EF9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{887552A2-77DF-4058-A262-91985D365A60}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5285E638-AEBD-4F4F-BA5F-8C70C64B3096}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4F8A6935-6B46-426F-88E1-B4B16BB4381B}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{E092F5A8-B781-4180-B6B4-0EAE0293EF17}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{15C0869F-DEBD-46A6-9E61-5ACEF216D00F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6558BE74-4E6F-42CB-945A-1E8C806E370D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6E909FF6-09CE-48C3-866C-7DA7FE1467A3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{91B5E3AB-4504-46EA-A915-ED694EE9C665}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E02290CE-1CB7-4914-9F45-3875E3FFEB44}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D179DA73-487A-4BB4-B014-49EBC3338DBB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{691330AA-46F3-46D9-9947-853B16EF4A25}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{BEB32C08-E1AB-4945-9E4B-14534606D35C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3FB48EA1-E8D8-4745-BC9D-5387B8F5CE5B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{07104E0E-1316-47DE-AF94-4FBEB08656FF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F4280502-2C71-4C49-88ED-35235EDD8E9A}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{00918B16-E127-40D6-8B3F-40C7F9AA2529}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{400A42D5-C029-49BC-87AC-0EEBD985AAAF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{18320757-EBB1-43BF-900C-15120C0AAF82}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7868,7 +7868,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D821DEA1-FBB6-4F09-BFB2-62B757E9E048}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5986959-B7C9-4150-9434-51F96E0B7CA3}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9135,18 +9135,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8AAA8E2C-B431-479D-A231-A54DB6F6773A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F5052C66-0A61-44BB-A7AC-073B378A7431}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FC22EFEA-3BE9-489C-9D6F-93BBBE8B6598}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9058134A-EBF5-4100-96E4-CEA4B5BE039A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{71A71680-09F2-4876-9C06-FB17723E141A}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B96D1436-00D2-44AE-B335-01B847651C90}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DC4913B9-7C9F-484F-B20D-B1CEF5996BDB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C821ED58-1E57-4AC8-8CF8-D7B62FEBA283}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3EB489FF-6CFD-4702-86B9-DF91A5DEF1F1}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{6E8EBCE6-8467-45B1-9781-1A4783C158CD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6F9D116D-BE64-4C3E-8CAB-AA8E24D1B807}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4F74AA2C-BBD1-40F2-A16D-20377521EF1E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B2946CC9-40A2-4DB9-9C92-9E16DB7DCA4E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B63F2215-5897-4A86-8F0E-65F9821A8D5E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7454325A-C12B-410B-BFAC-4C46D5CC4C77}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7881DD9D-3D28-4996-978D-63F036FDF0B0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{96F889D3-BD07-4353-8AE7-AFAAF508A952}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9138D99F-7110-46D6-B022-6610B8B6BF3C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7239FCB9-0223-45BF-B2A7-CD6DC574B3A9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6D4CC62C-15E6-41F1-85DF-EE958373C772}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2088CEA1-1359-4F93-94F0-6D30D0AA106F}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{A27B7AE2-BDFA-466B-B50C-F596345B47EA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A760D7E4-A4B9-44DE-8A58-2B239B2F3E74}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{319A17CB-13B7-401C-8104-C44707FFFE81}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9159,7 +9159,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC07BD50-F462-4B2A-B028-1D38F41CF7B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55C93D6D-174F-4F55-A5CD-6327346706FA}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10426,18 +10426,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1ABA2CF1-6776-4749-9FE5-B6686CF09E39}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9262CCB3-5693-468E-8C94-1232A6933265}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8A8CC810-9DA0-48F1-AA74-A9097467F55B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{82884726-DD5D-4FFE-8413-EE13209ED334}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9F840721-BC39-4EEE-ADD2-6FC2E34FD897}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4B67520E-BFF4-420B-972F-53E2FA8FE7EF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9DC35AA3-43FF-426D-8DDC-F15021F69ECA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6BBE1C9A-F195-49B1-B97A-ADCCE46F6144}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0BAC14B7-E69A-48EB-BEEB-4E437165B6DD}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{9EDE07E3-BAE5-4D38-8BA8-7790ACD0F851}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0BD98739-38D7-4524-BA7C-C1AE37CF13BB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{00CE9FD5-E0FC-45A5-94D5-319DAB48D9D4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4F72E331-833A-4381-8119-CB2E1DF5169E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7A2818F8-9222-4C0A-9636-A6C09FBD868E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7C821491-C627-45A3-B476-53C9BFC168C6}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{08F707F0-A561-4FBD-AC9A-0CA2341C85F2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{761309EE-B861-4626-A5F7-9E1B1048A903}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E0441673-DAA2-4CB0-9ACB-98656FFECAB5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{11FEB794-B470-4EFC-A389-21206E9EC86E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{75BDBEF5-B7B4-4A03-A767-1525F71CD964}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4D35865A-5C06-4418-BE8E-C0676700D782}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{FF561E21-4437-4956-960E-58E2534A685D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{36174B5F-7CD1-4A9C-BDCD-9E068EBB8A2E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{65E5B4EE-3A3F-47FA-A332-0EC3EC726B19}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10450,7 +10450,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE41F7B8-D2F2-4E57-964B-D37188A11FF5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C000966D-58FE-4137-B000-FB01683BC7BC}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11717,18 +11717,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ED928130-D95B-4738-9A4D-89137362BBEB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D9F239B6-2AB9-4526-97B9-B49F70418CF9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EE3FD106-6925-403E-AD28-7F24A5EC4A75}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D69236FB-BC92-48CC-BCE0-AF3F566FE3FB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{18E0E651-BD0A-4ECE-B3BF-CD46ADFF12CD}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0513FE12-3AC0-46D0-847C-8BEB9F639891}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4D562DB1-1DC8-4F3E-A354-3DE9F922588C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F19E9FB0-229B-420E-A19F-DD78A46E174D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B352EBA2-BCCF-4140-ADB9-C59AB1B737B3}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{0F001B30-CF2B-4F01-97CE-D0CD0EA83FF6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A46234B2-DD44-4F16-8981-EA36F47AD680}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{71B2B970-B5AD-43B8-9722-D4974AD66CF6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{02B4BA2E-17A1-4735-B600-F89EEEFA0E9A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8EF78E9C-E121-452A-8CFD-77EE637C2BFA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1F6815E6-6021-4E46-85BE-DAA854D54F95}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E372C4DD-3AEC-4ADA-8FF2-E8D742D6B6B1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FDF58CF4-9779-4459-BC3B-DAD6F2ED0FCF}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{BFD9AAA0-D1C8-4262-AE3B-29962B7FC868}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BE6BD273-B9D7-4A73-B91A-CBD9F5112BF8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2D4DA33A-2F82-4C28-B3FB-039C76A8DE1D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6886818D-04A1-4B44-A9A8-39FF31B34D30}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{97C522C0-D3FA-4955-AC1D-B1D1FEF1F716}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{322D2EF8-9CD3-472B-AD10-525C30123194}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9A4FE49D-588D-4687-A500-DB974AE7D0EE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11741,7 +11741,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB331DB6-E564-47EE-81F0-818035111482}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F63634-2D8B-4AB6-8229-11FF8D60C555}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -13001,18 +13001,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{52BC6EE3-2EFF-45F4-BDF0-933CD8D1BCC5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3F98C067-4C5A-45B9-BE76-418F1BDE00A4}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A2C08838-9298-467C-9E1D-DB08DC7F1040}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{19A18CA9-A300-44F3-9CA7-CA1607FAF888}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A6190C03-E5C2-494D-81EA-B504429C1865}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F6BDA26E-1F24-417E-850C-C325FEC5AE85}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2598FD54-1FE8-4053-8F02-485FB04535DB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{47CBEC2B-A909-4ED9-854E-AED39D699264}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{076D54C1-1597-421C-B103-A1FBA1C2F1FF}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{6CA72B73-60B4-4F41-8A7A-56A82B02FD3D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{584B4160-4042-4D55-9214-717AFD8A57AD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C08E1869-322C-43B9-B216-B21BB0CB5FD2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7FB1B7C1-9224-4A64-80A0-18FBEA80DC07}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FF7A43D2-8B70-4E5E-B5A9-C1A8177E95FD}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{79EA2C9B-1213-490D-8366-75905C14EB38}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E192D8F0-441F-4DE5-9E3D-29AAEFEAD085}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B46AB55C-7D66-4C24-A2FA-07B6487FE438}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{982DAE0B-C5EB-49D9-A779-3553BF2E990E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B1D1E9BC-2174-4266-ACC5-6FD91C0539A8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DF223E25-D17C-4C65-9EB2-C64CB76F539E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1A299A57-C9ED-4434-926B-39F7ECA60D4B}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{247BCBC2-DEE9-4B11-82E5-44E2E1473AE6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F256E5C1-535B-4A20-BB97-F6DC8080EA60}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F3126728-8C37-4227-98ED-CAA807369891}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13025,7 +13025,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06ECD62B-E943-4B45-8831-A6FDAE53DC75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7586B2D-5282-4FBE-8A6A-26B73ABAA01A}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -14333,18 +14333,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4EBD1DC1-8932-4226-9579-06CA25BA5A6B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6CAE4A17-3B8B-4DDA-B516-06EB24EC14D6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F1C55D9F-02D7-4DA9-BC71-61784D620448}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B6843BF7-0FAB-4126-9758-94E630E08ACE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F3268219-2902-4674-B1BE-BE796D6C3BF0}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B90A9142-9920-40B7-AD60-F32B5B44D364}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A7C636F8-66DC-49C3-ADEE-458C9A75C47F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7F2C6949-E41C-4B25-96C1-377BBC801F28}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EB31609B-1273-41C7-8070-AA8BF7ABEFE3}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{90EEAA9E-196A-4C90-A243-FD5AD3A6E006}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A1B499DF-A349-42C2-A0C0-2806C2823D53}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{27CA6091-3EB2-4E8A-9552-5908AE137078}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C5B71B0B-5A16-484F-AB4C-D09E11D1E46B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F13FE858-CC99-4F1B-A918-E6D2F22230D1}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5E6BDF18-7B5E-4351-9C3A-A81B3A87BD85}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{60908771-DBC2-4A66-99F5-AF7E4E525701}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8F72939D-99B8-40C6-9136-D6F22FCCA2D8}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D2E9F89B-D3CA-4054-BD2C-F9EF72481259}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{97F1FE47-6A26-4A54-91DF-F82039EAE2A4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{63C2E8F6-0766-4009-9BC7-7B3438487955}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4D3E5A9C-1E64-483C-8493-9045C4CCC86F}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{CD4AB530-DC44-4FDB-B70C-FE6A8FEDB910}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{58825EA2-3C59-42DE-A5EC-4B4F1952183C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{518F8E8B-24A1-4940-9692-DC7265C17911}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14357,7 +14357,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15906623-C15C-4DB0-9174-EAE278ED582D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC7D0B8-0E50-49C1-8A5E-D280CC42E375}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -15665,18 +15665,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5E5FB98E-5FEC-497B-873E-8EA4B9DC71E0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{98BCAB4E-11DA-47E8-9FEA-E2A68C78DB77}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B4190095-D7B6-4E3D-AB4D-FC885E63F935}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{35E59FEF-2583-45A7-B1CD-1CE12598C49B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2E588F3B-278A-4221-8719-E52EF293A323}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{77DD154A-4883-4195-816D-BCF4F0DDB1C5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AA118093-C4A3-4304-BFBD-4C09D4F2925F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4B86B21A-C013-4253-B594-92EC58714632}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BA423B78-DEEA-4E4A-AB5C-C916AE200173}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{40263D89-5072-4016-B5B2-E81B4F9D7397}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E067E499-1A7C-4B3A-8291-EC440D4D8A81}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{46C36BED-3CB7-4338-B2B3-1343BA0D5A9F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D5D13114-A66E-4A95-8828-C6AC91F33879}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9C7CBB99-8276-4E0B-9F94-B06447993F6B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{741FECD8-9237-44A0-83C8-F4ED3D88CCFA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{64028BBF-EA00-4269-BE5D-4ED9FB1D780F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3A4A54CA-7746-4CDF-8351-4466FE211739}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{2C4F3400-BB6A-4884-945E-C204ACD9654C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EDA5B635-185B-44C6-B9E7-5F8F5EC5F366}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4BA0B267-4C39-458E-80DF-4A88A24C9A55}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DBD8BF7D-C701-4AB0-9ECF-919AFB772390}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{DB318417-13A7-45A9-B084-B7141D955887}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DD0C5E7A-69BE-483D-A9C2-099AB31E4B20}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A2561992-4CE5-4B19-97CD-6BFC978EA50D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15689,7 +15689,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD25898F-CFFB-4A40-A7B0-709CB1E4CB2D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C4C7861-BDC8-465D-858A-A85BFC3C0F38}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -16997,18 +16997,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9778E72F-8C33-40EE-9C39-549428B16057}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{37C0790C-57FA-4DB7-8720-A6E15C8B3E60}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C80ABEF4-0E2A-49B9-A35C-3492BDC1F783}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BC0368A4-54E4-42D0-B180-107174A1A336}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7B7753C5-979E-44CB-9BDD-ED88E39DA3A3}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3AD41E0A-0158-4EEB-AF3C-0E9AB755C36F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A4BCA6AA-A94D-41CA-A63D-42620FA06FAD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1325D0F2-C3F0-427B-94C7-1298EC2163DA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{77E5935D-DC86-4FC1-A2EE-2EF02A328E60}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{52BC0C9A-2778-40B3-AA4B-A1B9F64DD249}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{58E05073-7970-4300-A6BD-02009FD59FB4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D1867145-95C5-49E8-BFE8-E942EFC16565}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E9232D31-CFFE-463A-B0B4-0B44C5F38161}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{65649DAA-FF92-4210-A5E1-074A6FAA9B42}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{249A6C0F-5F59-4AB0-BC5F-6908EB1F901F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{359A66B3-C071-484C-8F51-0DB6341A4124}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9DB5C4CF-6C82-4778-B69F-B208559DFDF4}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A593FEE0-428A-421B-BE51-8FB22CF95FC1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B7B599CD-4A05-4EF3-8DD3-4064CAE372D1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BCD0E03B-F3CD-496C-AD77-E187D1C7D7C3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1179B2A3-C79F-4541-A6E2-D05E1E17D2C1}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{340CBBED-7B91-4BBC-9EBB-E9F497FAE8FA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{77EC4493-B945-41D3-800C-1DD7B50C56BA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{30EF0885-9324-45AF-BAB1-0E1AF58D18C3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
